--- a/upload/invoice_20250420_error.xlsx
+++ b/upload/invoice_20250420_error.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="61">
   <si>
     <t>errors</t>
   </si>
@@ -136,6 +136,9 @@
     <t>tax_rate</t>
   </si>
   <si>
+    <t>E03-資料重複：此筆資料已存在</t>
+  </si>
+  <si>
     <t>E04-金額完整性：應稅銷售額明細加總不一致</t>
   </si>
   <si>
@@ -145,6 +148,21 @@
     <t>ABC公司</t>
   </si>
   <si>
+    <t>XYJZ1234</t>
+  </si>
+  <si>
+    <t>ATT3648</t>
+  </si>
+  <si>
+    <t>ORE_DDA</t>
+  </si>
+  <si>
+    <t>dsfjh9s</t>
+  </si>
+  <si>
+    <t>dfjwo3</t>
+  </si>
+  <si>
     <t>34u29</t>
   </si>
   <si>
@@ -163,10 +181,19 @@
     <t>個</t>
   </si>
   <si>
+    <t>TW002025042097637805</t>
+  </si>
+  <si>
+    <t>TW002025042097637806</t>
+  </si>
+  <si>
     <t>TW002025042097637807</t>
   </si>
   <si>
     <t>TW002025042097637808</t>
+  </si>
+  <si>
+    <t>TW002025042097637809</t>
   </si>
   <si>
     <t>65330715</t>
@@ -531,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN7"/>
+  <dimension ref="A1:AN16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,7 +694,7 @@
         <v>11404</v>
       </c>
       <c r="C2">
-        <v>97637807</v>
+        <v>97637805</v>
       </c>
       <c r="D2" s="2">
         <v>45767</v>
@@ -676,13 +703,13 @@
         <v>84834924</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="S2">
-        <v>7700</v>
+        <v>57638</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -694,10 +721,10 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>385</v>
+        <v>2881.9</v>
       </c>
       <c r="X2">
-        <v>8085</v>
+        <v>60519.9</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -709,31 +736,31 @@
         <v>1</v>
       </c>
       <c r="AC2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="AF2">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="AG2">
         <v>1</v>
       </c>
       <c r="AH2">
-        <v>2000</v>
+        <v>51000</v>
       </c>
       <c r="AI2">
-        <v>100</v>
+        <v>2250</v>
       </c>
       <c r="AL2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AN2">
         <v>0.05</v>
@@ -747,7 +774,7 @@
         <v>11404</v>
       </c>
       <c r="C3">
-        <v>97637807</v>
+        <v>97637805</v>
       </c>
       <c r="D3" s="2">
         <v>45767</v>
@@ -756,13 +783,13 @@
         <v>84834924</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="S3">
-        <v>7700</v>
+        <v>57638</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -774,10 +801,10 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>385</v>
+        <v>2881.9</v>
       </c>
       <c r="X3">
-        <v>8085</v>
+        <v>60519.9</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -789,31 +816,31 @@
         <v>2</v>
       </c>
       <c r="AC3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD3">
         <v>1</v>
       </c>
       <c r="AE3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="AF3">
-        <v>3000</v>
+        <v>638</v>
       </c>
       <c r="AG3">
         <v>1</v>
       </c>
       <c r="AH3">
-        <v>3000</v>
+        <v>638</v>
       </c>
       <c r="AI3">
-        <v>150</v>
+        <v>31.9</v>
       </c>
       <c r="AL3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AN3">
         <v>0.05</v>
@@ -827,7 +854,7 @@
         <v>11404</v>
       </c>
       <c r="C4">
-        <v>97637807</v>
+        <v>97637805</v>
       </c>
       <c r="D4" s="2">
         <v>45767</v>
@@ -836,13 +863,13 @@
         <v>84834924</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="S4">
-        <v>7700</v>
+        <v>57638</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -854,10 +881,10 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>385</v>
+        <v>2881.9</v>
       </c>
       <c r="X4">
-        <v>8085</v>
+        <v>60519.9</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -869,13 +896,13 @@
         <v>3</v>
       </c>
       <c r="AC4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="AF4">
         <v>3000</v>
@@ -884,16 +911,16 @@
         <v>1</v>
       </c>
       <c r="AH4">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="AI4">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="AL4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AN4">
         <v>0.05</v>
@@ -901,13 +928,13 @@
     </row>
     <row r="5" spans="1:40">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>11404</v>
       </c>
       <c r="C5">
-        <v>97637808</v>
+        <v>97637806</v>
       </c>
       <c r="D5" s="2">
         <v>45767</v>
@@ -916,28 +943,28 @@
         <v>84834924</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="S5">
-        <v>57638</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>3333</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>2883</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>60519.9</v>
+        <v>5733</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -948,46 +975,46 @@
       <c r="AB5">
         <v>1</v>
       </c>
-      <c r="AC5" t="s">
-        <v>46</v>
+      <c r="AC5">
+        <v>453453</v>
       </c>
       <c r="AD5">
         <v>1</v>
       </c>
       <c r="AE5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="AF5">
-        <v>17000</v>
+        <v>3333</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH5">
-        <v>51000</v>
+        <v>3333</v>
       </c>
       <c r="AI5">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="AM5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AN5">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:40">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>11404</v>
       </c>
       <c r="C6">
-        <v>97637808</v>
+        <v>97637806</v>
       </c>
       <c r="D6" s="2">
         <v>45767</v>
@@ -996,28 +1023,28 @@
         <v>84834924</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="S6">
-        <v>57638</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>3333</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>2883</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>60519.9</v>
+        <v>5733</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1035,39 +1062,39 @@
         <v>1</v>
       </c>
       <c r="AE6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="AF6">
-        <v>638</v>
+        <v>1200</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH6">
-        <v>638</v>
+        <v>1200</v>
       </c>
       <c r="AI6">
-        <v>31.9</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="AM6" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AN6">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:40">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>11404</v>
       </c>
       <c r="C7">
-        <v>97637808</v>
+        <v>97637806</v>
       </c>
       <c r="D7" s="2">
         <v>45767</v>
@@ -1076,28 +1103,28 @@
         <v>84834924</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="S7">
-        <v>57638</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>3333</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>2883</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>60519.9</v>
+        <v>5733</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1108,34 +1135,754 @@
       <c r="AB7">
         <v>3</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF7">
+        <v>1200</v>
+      </c>
+      <c r="AG7">
+        <v>3</v>
+      </c>
+      <c r="AH7">
+        <v>1200</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>11404</v>
+      </c>
+      <c r="C8">
+        <v>97637807</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45767</v>
+      </c>
+      <c r="G8">
+        <v>84834924</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>7700</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>385</v>
+      </c>
+      <c r="X8">
+        <v>8085</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF8">
+        <v>2000</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>2000</v>
+      </c>
+      <c r="AI8">
+        <v>100</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>11404</v>
+      </c>
+      <c r="C9">
+        <v>97637807</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45767</v>
+      </c>
+      <c r="G9">
+        <v>84834924</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>7700</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>385</v>
+      </c>
+      <c r="X9">
+        <v>8085</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF9">
+        <v>3000</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>3000</v>
+      </c>
+      <c r="AI9">
+        <v>150</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>11404</v>
+      </c>
+      <c r="C10">
+        <v>97637807</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45767</v>
+      </c>
+      <c r="G10">
+        <v>84834924</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>7700</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>385</v>
+      </c>
+      <c r="X10">
+        <v>8085</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>3</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF10">
+        <v>3000</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>3000</v>
+      </c>
+      <c r="AI10">
+        <v>150</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>11404</v>
+      </c>
+      <c r="C11">
+        <v>97637808</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45767</v>
+      </c>
+      <c r="G11">
+        <v>84834924</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>57638</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>2883</v>
+      </c>
+      <c r="X11">
+        <v>60519.9</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF11">
+        <v>17000</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>51000</v>
+      </c>
+      <c r="AI11">
+        <v>2250</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>11404</v>
+      </c>
+      <c r="C12">
+        <v>97637808</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45767</v>
+      </c>
+      <c r="G12">
+        <v>84834924</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>57638</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>2883</v>
+      </c>
+      <c r="X12">
+        <v>60519.9</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>2</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF12">
+        <v>638</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>638</v>
+      </c>
+      <c r="AI12">
+        <v>31.9</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>11404</v>
+      </c>
+      <c r="C13">
+        <v>97637808</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45767</v>
+      </c>
+      <c r="G13">
+        <v>84834924</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>57638</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>2883</v>
+      </c>
+      <c r="X13">
+        <v>60519.9</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>3</v>
+      </c>
+      <c r="AC13">
         <v>38420</v>
       </c>
-      <c r="AD7">
-        <v>1</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF7">
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF13">
         <v>3000</v>
       </c>
-      <c r="AG7">
-        <v>1</v>
-      </c>
-      <c r="AH7">
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
         <v>6000</v>
       </c>
-      <c r="AI7">
+      <c r="AI13">
         <v>300</v>
       </c>
-      <c r="AL7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN7">
+      <c r="AL13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>11404</v>
+      </c>
+      <c r="C14">
+        <v>97637809</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45767</v>
+      </c>
+      <c r="G14">
+        <v>84834924</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>57638</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>2881</v>
+      </c>
+      <c r="X14">
+        <v>60519.9</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF14">
+        <v>17000</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <v>51000</v>
+      </c>
+      <c r="AI14">
+        <v>2250</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>11404</v>
+      </c>
+      <c r="C15">
+        <v>97637809</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45767</v>
+      </c>
+      <c r="G15">
+        <v>84834924</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>57638</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>2881</v>
+      </c>
+      <c r="X15">
+        <v>60519.9</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>2</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF15">
+        <v>638</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>638</v>
+      </c>
+      <c r="AI15">
+        <v>31.9</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>11404</v>
+      </c>
+      <c r="C16">
+        <v>97637809</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45767</v>
+      </c>
+      <c r="G16">
+        <v>84834924</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>57638</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>2881</v>
+      </c>
+      <c r="X16">
+        <v>60519.9</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>3</v>
+      </c>
+      <c r="AC16">
+        <v>38420</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF16">
+        <v>3000</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>6000</v>
+      </c>
+      <c r="AI16">
+        <v>300</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN16">
         <v>0.05</v>
       </c>
     </row>
